--- a/Intervalos_de_Confianca_e_Teste_de_Hipoteses/resultados_excel.xlsx
+++ b/Intervalos_de_Confianca_e_Teste_de_Hipoteses/resultados_excel.xlsx
@@ -461,7 +461,7 @@
         <v>0.9445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9855</v>
+        <v>0.9839999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>0.946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9880000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>0.946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9869999999999998</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>0.9455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9844999999999999</v>
+        <v>0.9854999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>0.9454999999999998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9889999999999999</v>
+        <v>0.9884999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>0.9455000000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9875</v>
+        <v>0.9870000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>0.9460000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9884999999999999</v>
+        <v>0.9864999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>0.9479999999999998</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9890000000000001</v>
+        <v>0.9884999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>0.946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9880000000000001</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>0.9470000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9884999999999998</v>
+        <v>0.9889999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>0.946</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9875</v>
+        <v>0.9874999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>0.9434999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9880000000000001</v>
+        <v>0.9890000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -699,7 +699,7 @@
         <v>0.9454999999999998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.986</v>
+        <v>0.9879999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -727,7 +727,7 @@
         <v>0.9455</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9869999999999999</v>
+        <v>0.9864999999999998</v>
       </c>
     </row>
     <row r="22">
@@ -755,7 +755,7 @@
         <v>0.946</v>
       </c>
       <c r="D23" t="n">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9855</v>
+        <v>0.9860000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>0.946</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9865</v>
+        <v>0.9884999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -811,7 +811,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9880000000000001</v>
+        <v>0.9884999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>0.946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9875</v>
+        <v>0.9879999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -853,7 +853,7 @@
         <v>0.9445</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9865</v>
+        <v>0.9854999999999998</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>0.9455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.986</v>
+        <v>0.9869999999999999</v>
       </c>
     </row>
   </sheetData>
